--- a/biology/Microbiologie/Labyrinthulaceae/Labyrinthulaceae.xlsx
+++ b/biology/Microbiologie/Labyrinthulaceae/Labyrinthulaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Labyrinthulaceae sont une famille de chromistes de l'embranchement des Bigyra, de la classe des Labyrinthulea et de l’ordre des Labyrinthulida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Labyrinthuloides, formé du préfixe labyrinth-, et du suffixe  grec -oïde, « qui à l'aspect de », littéralement « à l'aspect labyrinthique », en référence à l'aspect de cet organisme « en forme de fuseau qui glisse le long de pistes filamenteuses formant un filet »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Labyrinthuloides, formé du préfixe labyrinth-, et du suffixe  grec -oïde, « qui à l'aspect de », littéralement « à l'aspect labyrinthique », en référence à l'aspect de cet organisme « en forme de fuseau qui glisse le long de pistes filamenteuses formant un filet ».
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Labyrinthuloides sont des cellules végétatives uninucléées capables de motilité glissante en utilisant des extensions ectoplasmiques en forme de filet qui sont élaborées au niveau d'organites spécialisés, les sagenogénétosomes[note 1], dans le cortex cytoplasmique ; les éléments du filet ectoplasmique ne contiennent pas d'organites cytoplasmiques, seulement des cisternae (en)[note 2] liées à la membrane.
 Les cellules se déplacent indépendamment et peuvent inverser le sens du mouvement ; aucun élément nettement identifiable n'enrobe les cellules.
-La multiplication est végétative, soit par division binaire, soit par formation de sporanges au cours de bipartitions successives ou clivage progressif du protoplaste ; les zoospores, si elles sont formées, sont biflagellées avec un flagelle antérieur contenant des mastigonèmes et un flagelle postérieur en coup de fouet ; des masses de cytoplasme (plasmodes) et des cellules amiboïdes peuvent se former[2] .
+La multiplication est végétative, soit par division binaire, soit par formation de sporanges au cours de bipartitions successives ou clivage progressif du protoplaste ; les zoospores, si elles sont formées, sont biflagellées avec un flagelle antérieur contenant des mastigonèmes et un flagelle postérieur en coup de fouet ; des masses de cytoplasme (plasmodes) et des cellules amiboïdes peuvent se former .
 </t>
         </is>
       </c>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,11 +619,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (11 septembre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (11 septembre 2022) :
 Labyrinthuloides F.O.Perkins, 1973
-Selon BioLib                    (25 janvier 2023)[3] :
+Selon BioLib                    (25 janvier 2023) :
 Chlamydomyxa W.A. Archer, 1875
 Labyrinthomyxa Dubosq, 1921
 Labyrinthula L. Cienkowski, 1864
@@ -637,11 +657,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Labyrinthulaceae Haeckel, 1868[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Labyrinthulaceae Haeckel, 1868.
 Perkins définit ainsi le groupe des Labyrinthulia : « La sous-classe Labyrinthulia (Levine et Corliss, 1963) a été érigée pour inclure "des individus en forme de fuseau qui glissent le long de pistes filamenteuses formant un filet visqueux".
-Je crois que le terme Labyrinthulia peut, à l'heure actuelle, fonctionner comme la structure taxonomique nécessaire pour englober les (types) d'organismes au moins jusqu'à ce qu'ils soient mieux compris »[1].
+Je crois que le terme Labyrinthulia peut, à l'heure actuelle, fonctionner comme la structure taxonomique nécessaire pour englober les (types) d'organismes au moins jusqu'à ce qu'ils soient mieux compris ».
 </t>
         </is>
       </c>
